--- a/ログイン_結合テスト.xlsx
+++ b/ログイン_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F0337A7-9474-4FF5-A7AC-5C6965E91AAC}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33001581-ECA2-4300-B6ED-377F29F9C090}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="114">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1489,6 +1489,29 @@
     <t>キャッシュ残りあり</t>
     <rPh sb="5" eb="6">
       <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード後、ログイン画面に遷移</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2504,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2556,7 +2579,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2611,7 +2634,7 @@
         <v>90</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -2649,7 +2672,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -2687,7 +2710,7 @@
         <v>94</v>
       </c>
       <c r="G12" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -2725,7 +2748,7 @@
         <v>94</v>
       </c>
       <c r="G14" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -2763,7 +2786,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -2795,13 +2818,13 @@
         <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G18" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -2887,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79C1B5A-28CD-4B51-81F9-92D83E38A90F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2939,7 +2962,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2993,8 +3016,8 @@
       <c r="F8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="3">
-        <v>46002</v>
+      <c r="G8" s="4">
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3029,8 +3052,8 @@
       <c r="F10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="3">
-        <v>46002</v>
+      <c r="G10" s="4">
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3050,7 +3073,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
